--- a/src/test/input/used/PM/ProductManagment-DepProd-1.xlsx
+++ b/src/test/input/used/PM/ProductManagment-DepProd-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse_workspace\LC_GEN\src\test\input\group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478A81DD-6D5F-4264-9E40-ADD26B0F04F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDFC6CD-1D40-445E-A88B-C811A8CF35AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="29020" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B4-PM" sheetId="1" r:id="rId1"/>
@@ -2538,11 +2538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:IV283"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96:B97"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J95" sqref="A95:XFD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.86328125" defaultRowHeight="14.5" customHeight="1"/>
@@ -2598,7 +2597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="2" spans="1:15" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2645,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="3" spans="1:15" ht="18" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2692,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="4" spans="1:15" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -2739,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="5" spans="1:15" ht="18" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -2786,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="6" spans="1:15" ht="18" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -2833,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="7" spans="1:15" ht="18" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2880,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="8" spans="1:15" ht="18" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2927,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="9" spans="1:15" ht="18" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -2974,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3021,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="11" spans="1:15" ht="18" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="12" spans="1:15" ht="18" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -3115,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="13" spans="1:15" ht="18" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -3162,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="14" spans="1:15" ht="18" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -3209,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="15" spans="1:15" ht="18" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -3256,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="16" spans="1:15" ht="18" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -3303,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="17" spans="1:15" ht="18" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3350,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="18" spans="1:15" ht="18" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
@@ -3397,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="19" spans="1:15" ht="18" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
@@ -3444,7 +3443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="20" spans="1:15" ht="18" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
@@ -3491,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="21" spans="1:15" ht="18" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
@@ -3538,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="22" spans="1:15" ht="18" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -3585,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="23" spans="1:15" ht="18" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -3632,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="24" spans="1:15" ht="18" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -3679,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="25" spans="1:15" ht="18" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>12</v>
       </c>
@@ -3726,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="26" spans="1:15" ht="18" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>12</v>
       </c>
@@ -3773,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="27" spans="1:15" ht="18" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
@@ -3820,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="28" spans="1:15" ht="18" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>12</v>
       </c>
@@ -3867,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="29" spans="1:15" ht="18" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>12</v>
       </c>
@@ -3914,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="30" spans="1:15" ht="18" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -3961,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="31" spans="1:15" ht="18" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
@@ -4008,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="32" spans="1:15" ht="18" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>12</v>
       </c>
@@ -4055,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="33" spans="1:15" ht="18" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>12</v>
       </c>
@@ -4102,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="34" spans="1:15" ht="18" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>12</v>
       </c>
@@ -4149,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="35" spans="1:15" ht="18" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>12</v>
       </c>
@@ -4196,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="36" spans="1:15" ht="18" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>12</v>
       </c>
@@ -4243,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="37" spans="1:15" ht="18" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>12</v>
       </c>
@@ -4290,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="38" spans="1:15" ht="18" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
@@ -4337,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="39" spans="1:15" ht="18" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>12</v>
       </c>
@@ -4384,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>12</v>
       </c>
@@ -4431,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="41" spans="1:15" ht="18" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>12</v>
       </c>
@@ -4478,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="42" spans="1:15" ht="18" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>12</v>
       </c>
@@ -4525,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="43" spans="1:15" ht="18" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>12</v>
       </c>
@@ -4572,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="44" spans="1:15" ht="18" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>12</v>
       </c>
@@ -4619,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="45" spans="1:15" ht="18" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>12</v>
       </c>
@@ -4666,7 +4665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="46" spans="1:15" ht="18" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
@@ -4713,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="47" spans="1:15" ht="18" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>12</v>
       </c>
@@ -4760,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="48" spans="1:15" ht="18" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>12</v>
       </c>
@@ -4807,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="49" spans="1:15" ht="18" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>12</v>
       </c>
@@ -4854,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="50" spans="1:15" ht="18" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>12</v>
       </c>
@@ -4901,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="51" spans="1:15" ht="18" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>12</v>
       </c>
@@ -4948,7 +4947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="52" spans="1:15" ht="18" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>12</v>
       </c>
@@ -4995,7 +4994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="53" spans="1:15" ht="18" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>12</v>
       </c>
@@ -5042,7 +5041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="54" spans="1:15" ht="18" customHeight="1">
       <c r="A54" s="5" t="s">
         <v>12</v>
       </c>
@@ -5089,7 +5088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="55" spans="1:15" ht="18" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>12</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="56" spans="1:15" ht="18" customHeight="1">
       <c r="A56" s="5" t="s">
         <v>12</v>
       </c>
@@ -5183,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="57" spans="1:15" ht="18" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>12</v>
       </c>
@@ -5230,7 +5229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="58" spans="1:15" ht="18" customHeight="1">
       <c r="A58" s="5" t="s">
         <v>12</v>
       </c>
@@ -5277,7 +5276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="59" spans="1:15" ht="18" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>12</v>
       </c>
@@ -5324,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="60" spans="1:15" ht="18" customHeight="1">
       <c r="A60" s="5" t="s">
         <v>12</v>
       </c>
@@ -5371,7 +5370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="61" spans="1:15" ht="18" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>12</v>
       </c>
@@ -5418,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="62" spans="1:15" ht="18" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>12</v>
       </c>
@@ -5465,7 +5464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="63" spans="1:15" ht="18" customHeight="1">
       <c r="A63" s="5" t="s">
         <v>12</v>
       </c>
@@ -5512,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="64" spans="1:15" ht="18" customHeight="1">
       <c r="A64" s="5" t="s">
         <v>12</v>
       </c>
@@ -5559,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="65" spans="1:15" ht="18" customHeight="1">
       <c r="A65" s="5" t="s">
         <v>12</v>
       </c>
@@ -5606,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="66" spans="1:15" ht="18" customHeight="1">
       <c r="A66" s="5" t="s">
         <v>12</v>
       </c>
@@ -5653,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="67" spans="1:15" ht="18" customHeight="1">
       <c r="A67" s="5" t="s">
         <v>12</v>
       </c>
@@ -5700,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="68" spans="1:15" ht="18" customHeight="1">
       <c r="A68" s="5" t="s">
         <v>12</v>
       </c>
@@ -5747,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="69" spans="1:15" ht="18" customHeight="1">
       <c r="A69" s="5" t="s">
         <v>12</v>
       </c>
@@ -5794,7 +5793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="70" spans="1:15" ht="18" customHeight="1">
       <c r="A70" s="5" t="s">
         <v>12</v>
       </c>
@@ -5841,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="71" spans="1:15" ht="18" customHeight="1">
       <c r="A71" s="5" t="s">
         <v>12</v>
       </c>
@@ -5888,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="72" spans="1:15" ht="18" customHeight="1">
       <c r="A72" s="5" t="s">
         <v>12</v>
       </c>
@@ -5935,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="73" spans="1:15" ht="18" customHeight="1">
       <c r="A73" s="5" t="s">
         <v>12</v>
       </c>
@@ -5982,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="74" spans="1:15" ht="18" customHeight="1">
       <c r="A74" s="5" t="s">
         <v>12</v>
       </c>
@@ -6029,7 +6028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="75" spans="1:15" ht="18" customHeight="1">
       <c r="A75" s="5" t="s">
         <v>12</v>
       </c>
@@ -6076,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="76" spans="1:15" ht="18" customHeight="1">
       <c r="A76" s="5" t="s">
         <v>12</v>
       </c>
@@ -6123,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="77" spans="1:15" ht="18" customHeight="1">
       <c r="A77" s="5" t="s">
         <v>12</v>
       </c>
@@ -6170,7 +6169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="78" spans="1:15" ht="18" customHeight="1">
       <c r="A78" s="5" t="s">
         <v>12</v>
       </c>
@@ -6217,7 +6216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="79" spans="1:15" ht="18" customHeight="1">
       <c r="A79" s="5" t="s">
         <v>12</v>
       </c>
@@ -6264,7 +6263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="80" spans="1:15" ht="18" customHeight="1">
       <c r="A80" s="5" t="s">
         <v>12</v>
       </c>
@@ -6311,7 +6310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="81" spans="1:15" ht="18" customHeight="1">
       <c r="A81" s="5" t="s">
         <v>12</v>
       </c>
@@ -6358,7 +6357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="82" spans="1:15" ht="18" customHeight="1">
       <c r="A82" s="5" t="s">
         <v>12</v>
       </c>
@@ -6405,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="83" spans="1:15" ht="18" customHeight="1">
       <c r="A83" s="5" t="s">
         <v>12</v>
       </c>
@@ -6452,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="84" spans="1:15" ht="18" customHeight="1">
       <c r="A84" s="5" t="s">
         <v>12</v>
       </c>
@@ -6499,7 +6498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="85" spans="1:15" ht="18" customHeight="1">
       <c r="A85" s="5" t="s">
         <v>12</v>
       </c>
@@ -6546,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="86" spans="1:15" ht="18" customHeight="1">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -6593,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="87" spans="1:15" ht="18" customHeight="1">
       <c r="A87" s="5" t="s">
         <v>12</v>
       </c>
@@ -6640,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="88" spans="1:15" ht="18" customHeight="1">
       <c r="A88" s="5" t="s">
         <v>12</v>
       </c>
@@ -6687,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="89" spans="1:15" ht="18" customHeight="1">
       <c r="A89" s="5" t="s">
         <v>12</v>
       </c>
@@ -6734,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="90" spans="1:15" ht="18" customHeight="1">
       <c r="A90" s="5" t="s">
         <v>12</v>
       </c>
@@ -6781,7 +6780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="91" spans="1:15" ht="18" customHeight="1">
       <c r="A91" s="5" t="s">
         <v>12</v>
       </c>
@@ -6828,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="92" spans="1:15" ht="18" customHeight="1">
       <c r="A92" s="5" t="s">
         <v>12</v>
       </c>
@@ -6875,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="93" spans="1:15" ht="18" customHeight="1">
       <c r="A93" s="5" t="s">
         <v>12</v>
       </c>
@@ -6911,18 +6910,18 @@
         <v>203</v>
       </c>
       <c r="M93" s="5" t="str">
-        <f t="shared" ref="M93:M124" si="5">B2</f>
-        <v>Create a Term Deposit Product with all properties</v>
+        <f t="shared" ref="M93:M94" si="5">B93</f>
+        <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N93" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Create a Term Deposit Product with all properties</v>
+        <f t="shared" ref="N93:N94" si="6">M93</f>
+        <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O93" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="94" spans="1:15" ht="18" customHeight="1">
       <c r="A94" s="5" t="s">
         <v>12</v>
       </c>
@@ -6959,17 +6958,17 @@
       </c>
       <c r="M94" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Create a Term Deposit Product with all properties</v>
+        <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N94" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Create a Term Deposit Product with all properties</v>
+        <f t="shared" si="6"/>
+        <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O94" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="95" spans="1:15" ht="18" customHeight="1">
       <c r="A95" s="5" t="s">
         <v>12</v>
       </c>
@@ -7005,7 +7004,7 @@
         <v>20</v>
       </c>
       <c r="M95" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="M93:M124" si="7">B4</f>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N95" s="5" t="str">
@@ -7016,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="96" spans="1:15" ht="18" customHeight="1">
       <c r="A96" s="5" t="s">
         <v>12</v>
       </c>
@@ -7052,7 +7051,7 @@
         <v>20</v>
       </c>
       <c r="M96" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N96" s="5" t="str">
@@ -7063,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="97" spans="1:15" ht="18" customHeight="1">
       <c r="A97" s="5" t="s">
         <v>12</v>
       </c>
@@ -7099,7 +7098,7 @@
         <v>20</v>
       </c>
       <c r="M97" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N97" s="5" t="str">
@@ -7110,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="98" spans="1:15" ht="18" customHeight="1">
       <c r="A98" s="5" t="s">
         <v>12</v>
       </c>
@@ -7146,7 +7145,7 @@
         <v>203</v>
       </c>
       <c r="M98" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N98" s="5" t="str">
@@ -7157,7 +7156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="99" spans="1:15" ht="18" customHeight="1">
       <c r="A99" s="5" t="s">
         <v>12</v>
       </c>
@@ -7193,7 +7192,7 @@
         <v>203</v>
       </c>
       <c r="M99" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N99" s="5" t="str">
@@ -7204,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="100" spans="1:15" ht="18" customHeight="1">
       <c r="A100" s="5" t="s">
         <v>12</v>
       </c>
@@ -7240,7 +7239,7 @@
         <v>203</v>
       </c>
       <c r="M100" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N100" s="5" t="str">
@@ -7251,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="101" spans="1:15" ht="18" customHeight="1">
       <c r="A101" s="5" t="s">
         <v>12</v>
       </c>
@@ -7287,7 +7286,7 @@
         <v>203</v>
       </c>
       <c r="M101" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N101" s="5" t="str">
@@ -7298,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="102" spans="1:15" ht="18" customHeight="1">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -7334,7 +7333,7 @@
         <v>203</v>
       </c>
       <c r="M102" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N102" s="5" t="str">
@@ -7345,7 +7344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="103" spans="1:15" ht="18" customHeight="1">
       <c r="A103" s="5" t="s">
         <v>12</v>
       </c>
@@ -7381,7 +7380,7 @@
         <v>203</v>
       </c>
       <c r="M103" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N103" s="5" t="str">
@@ -7392,7 +7391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="104" spans="1:15" ht="18" customHeight="1">
       <c r="A104" s="5" t="s">
         <v>12</v>
       </c>
@@ -7428,7 +7427,7 @@
         <v>203</v>
       </c>
       <c r="M104" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N104" s="5" t="str">
@@ -7439,7 +7438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="105" spans="1:15" ht="18" customHeight="1">
       <c r="A105" s="5" t="s">
         <v>12</v>
       </c>
@@ -7475,7 +7474,7 @@
         <v>203</v>
       </c>
       <c r="M105" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N105" s="5" t="str">
@@ -7486,7 +7485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="106" spans="1:15" ht="18" customHeight="1">
       <c r="A106" s="5" t="s">
         <v>12</v>
       </c>
@@ -7522,7 +7521,7 @@
         <v>203</v>
       </c>
       <c r="M106" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N106" s="5" t="str">
@@ -7533,7 +7532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="107" spans="1:15" ht="18" customHeight="1">
       <c r="A107" s="5" t="s">
         <v>12</v>
       </c>
@@ -7569,7 +7568,7 @@
         <v>203</v>
       </c>
       <c r="M107" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N107" s="5" t="str">
@@ -7580,7 +7579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="108" spans="1:15" ht="18" customHeight="1">
       <c r="A108" s="5" t="s">
         <v>12</v>
       </c>
@@ -7616,7 +7615,7 @@
         <v>203</v>
       </c>
       <c r="M108" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N108" s="5" t="str">
@@ -7627,7 +7626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="109" spans="1:15" ht="18" customHeight="1">
       <c r="A109" s="5" t="s">
         <v>12</v>
       </c>
@@ -7663,7 +7662,7 @@
         <v>203</v>
       </c>
       <c r="M109" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N109" s="5" t="str">
@@ -7674,7 +7673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="110" spans="1:15" ht="18" customHeight="1">
       <c r="A110" s="5" t="s">
         <v>12</v>
       </c>
@@ -7710,7 +7709,7 @@
         <v>203</v>
       </c>
       <c r="M110" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N110" s="5" t="str">
@@ -7721,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="111" spans="1:15" ht="18" customHeight="1">
       <c r="A111" s="5" t="s">
         <v>12</v>
       </c>
@@ -7757,7 +7756,7 @@
         <v>203</v>
       </c>
       <c r="M111" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N111" s="5" t="str">
@@ -7768,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="112" spans="1:15" ht="18" customHeight="1">
       <c r="A112" s="5" t="s">
         <v>12</v>
       </c>
@@ -7804,7 +7803,7 @@
         <v>203</v>
       </c>
       <c r="M112" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N112" s="5" t="str">
@@ -7815,7 +7814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="113" spans="1:15" ht="18" customHeight="1">
       <c r="A113" s="5" t="s">
         <v>12</v>
       </c>
@@ -7851,7 +7850,7 @@
         <v>203</v>
       </c>
       <c r="M113" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N113" s="5" t="str">
@@ -7862,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="114" spans="1:15" ht="18" customHeight="1">
       <c r="A114" s="5" t="s">
         <v>12</v>
       </c>
@@ -7898,7 +7897,7 @@
         <v>203</v>
       </c>
       <c r="M114" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N114" s="5" t="str">
@@ -7909,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="115" spans="1:15" ht="18" customHeight="1">
       <c r="A115" s="5" t="s">
         <v>12</v>
       </c>
@@ -7945,7 +7944,7 @@
         <v>203</v>
       </c>
       <c r="M115" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N115" s="5" t="str">
@@ -7956,7 +7955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="116" spans="1:15" ht="18" customHeight="1">
       <c r="A116" s="5" t="s">
         <v>12</v>
       </c>
@@ -7992,7 +7991,7 @@
         <v>203</v>
       </c>
       <c r="M116" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N116" s="5" t="str">
@@ -8003,7 +8002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="117" spans="1:15" ht="18" customHeight="1">
       <c r="A117" s="5" t="s">
         <v>12</v>
       </c>
@@ -8039,7 +8038,7 @@
         <v>203</v>
       </c>
       <c r="M117" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N117" s="5" t="str">
@@ -8050,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="118" spans="1:15" ht="18" customHeight="1">
       <c r="A118" s="5" t="s">
         <v>12</v>
       </c>
@@ -8086,7 +8085,7 @@
         <v>203</v>
       </c>
       <c r="M118" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N118" s="5" t="str">
@@ -8097,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="119" spans="1:15" ht="18" customHeight="1">
       <c r="A119" s="5" t="s">
         <v>12</v>
       </c>
@@ -8133,7 +8132,7 @@
         <v>203</v>
       </c>
       <c r="M119" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N119" s="5" t="str">
@@ -8144,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="120" spans="1:15" ht="18" customHeight="1">
       <c r="A120" s="5" t="s">
         <v>12</v>
       </c>
@@ -8180,7 +8179,7 @@
         <v>203</v>
       </c>
       <c r="M120" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N120" s="5" t="str">
@@ -8191,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="121" spans="1:15" ht="18" customHeight="1">
       <c r="A121" s="5" t="s">
         <v>12</v>
       </c>
@@ -8227,7 +8226,7 @@
         <v>203</v>
       </c>
       <c r="M121" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N121" s="5" t="str">
@@ -8238,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="122" spans="1:15" ht="18" customHeight="1">
       <c r="A122" s="5" t="s">
         <v>12</v>
       </c>
@@ -8274,7 +8273,7 @@
         <v>203</v>
       </c>
       <c r="M122" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N122" s="5" t="str">
@@ -8285,7 +8284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="123" spans="1:15" ht="18" customHeight="1">
       <c r="A123" s="5" t="s">
         <v>12</v>
       </c>
@@ -8321,7 +8320,7 @@
         <v>203</v>
       </c>
       <c r="M123" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N123" s="5" t="str">
@@ -8332,7 +8331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="124" spans="1:15" ht="18" customHeight="1">
       <c r="A124" s="5" t="s">
         <v>12</v>
       </c>
@@ -8368,7 +8367,7 @@
         <v>203</v>
       </c>
       <c r="M124" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N124" s="5" t="str">
@@ -8379,7 +8378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="125" spans="1:15" ht="18" customHeight="1">
       <c r="A125" s="5" t="s">
         <v>12</v>
       </c>
@@ -8415,7 +8414,7 @@
         <v>203</v>
       </c>
       <c r="M125" s="5" t="str">
-        <f t="shared" ref="M125:M156" si="6">B34</f>
+        <f t="shared" ref="M125:M156" si="8">B34</f>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N125" s="5" t="str">
@@ -8426,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="126" spans="1:15" ht="18" customHeight="1">
       <c r="A126" s="5" t="s">
         <v>12</v>
       </c>
@@ -8462,7 +8461,7 @@
         <v>203</v>
       </c>
       <c r="M126" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N126" s="5" t="str">
@@ -8473,7 +8472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="127" spans="1:15" ht="18" customHeight="1">
       <c r="A127" s="5" t="s">
         <v>12</v>
       </c>
@@ -8509,7 +8508,7 @@
         <v>203</v>
       </c>
       <c r="M127" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N127" s="5" t="str">
@@ -8520,7 +8519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="128" spans="1:15" ht="18" customHeight="1">
       <c r="A128" s="5" t="s">
         <v>12</v>
       </c>
@@ -8556,7 +8555,7 @@
         <v>203</v>
       </c>
       <c r="M128" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N128" s="5" t="str">
@@ -8567,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="129" spans="1:15" ht="18" customHeight="1">
       <c r="A129" s="5" t="s">
         <v>12</v>
       </c>
@@ -8603,7 +8602,7 @@
         <v>203</v>
       </c>
       <c r="M129" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N129" s="5" t="str">
@@ -8614,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="130" spans="1:15" ht="18" customHeight="1">
       <c r="A130" s="5" t="s">
         <v>12</v>
       </c>
@@ -8650,18 +8649,18 @@
         <v>203</v>
       </c>
       <c r="M130" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N130" s="5" t="str">
-        <f t="shared" ref="N130:N193" si="7">M130</f>
+        <f t="shared" ref="N130:N193" si="9">M130</f>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O130" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="131" spans="1:15" ht="18" customHeight="1">
       <c r="A131" s="5" t="s">
         <v>12</v>
       </c>
@@ -8697,18 +8696,18 @@
         <v>203</v>
       </c>
       <c r="M131" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N131" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O131" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="132" spans="1:15" ht="18" customHeight="1">
       <c r="A132" s="5" t="s">
         <v>12</v>
       </c>
@@ -8744,18 +8743,18 @@
         <v>203</v>
       </c>
       <c r="M132" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N132" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O132" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="133" spans="1:15" ht="18" customHeight="1">
       <c r="A133" s="5" t="s">
         <v>12</v>
       </c>
@@ -8791,18 +8790,18 @@
         <v>203</v>
       </c>
       <c r="M133" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N133" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O133" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="134" spans="1:15" ht="18" customHeight="1">
       <c r="A134" s="5" t="s">
         <v>12</v>
       </c>
@@ -8838,18 +8837,18 @@
         <v>203</v>
       </c>
       <c r="M134" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N134" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O134" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="135" spans="1:15" ht="18" customHeight="1">
       <c r="A135" s="5" t="s">
         <v>12</v>
       </c>
@@ -8885,18 +8884,18 @@
         <v>203</v>
       </c>
       <c r="M135" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N135" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O135" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="136" spans="1:15" ht="18" customHeight="1">
       <c r="A136" s="5" t="s">
         <v>12</v>
       </c>
@@ -8932,18 +8931,18 @@
         <v>203</v>
       </c>
       <c r="M136" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N136" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O136" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="137" spans="1:15" ht="18" customHeight="1">
       <c r="A137" s="5" t="s">
         <v>12</v>
       </c>
@@ -8979,18 +8978,18 @@
         <v>203</v>
       </c>
       <c r="M137" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N137" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O137" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="138" spans="1:15" ht="18" customHeight="1">
       <c r="A138" s="5" t="s">
         <v>12</v>
       </c>
@@ -9026,18 +9025,18 @@
         <v>203</v>
       </c>
       <c r="M138" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N138" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O138" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="139" spans="1:15" ht="18" customHeight="1">
       <c r="A139" s="5" t="s">
         <v>12</v>
       </c>
@@ -9073,18 +9072,18 @@
         <v>203</v>
       </c>
       <c r="M139" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N139" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O139" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="140" spans="1:15" ht="18" customHeight="1">
       <c r="A140" s="5" t="s">
         <v>12</v>
       </c>
@@ -9120,18 +9119,18 @@
         <v>203</v>
       </c>
       <c r="M140" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N140" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O140" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="141" spans="1:15" ht="18" customHeight="1">
       <c r="A141" s="5" t="s">
         <v>12</v>
       </c>
@@ -9167,18 +9166,18 @@
         <v>203</v>
       </c>
       <c r="M141" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N141" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O141" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="142" spans="1:15" ht="18" customHeight="1">
       <c r="A142" s="5" t="s">
         <v>12</v>
       </c>
@@ -9214,18 +9213,18 @@
         <v>203</v>
       </c>
       <c r="M142" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N142" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O142" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="143" spans="1:15" ht="18" customHeight="1">
       <c r="A143" s="5" t="s">
         <v>12</v>
       </c>
@@ -9261,18 +9260,18 @@
         <v>203</v>
       </c>
       <c r="M143" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N143" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O143" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="144" spans="1:15" ht="18" customHeight="1">
       <c r="A144" s="5" t="s">
         <v>12</v>
       </c>
@@ -9308,18 +9307,18 @@
         <v>203</v>
       </c>
       <c r="M144" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N144" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O144" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="145" spans="1:15" ht="18" customHeight="1">
       <c r="A145" s="5" t="s">
         <v>12</v>
       </c>
@@ -9355,18 +9354,18 @@
         <v>203</v>
       </c>
       <c r="M145" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N145" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O145" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="146" spans="1:15" ht="18" customHeight="1">
       <c r="A146" s="5" t="s">
         <v>12</v>
       </c>
@@ -9402,18 +9401,18 @@
         <v>203</v>
       </c>
       <c r="M146" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N146" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O146" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="147" spans="1:15" ht="18" customHeight="1">
       <c r="A147" s="5" t="s">
         <v>12</v>
       </c>
@@ -9449,18 +9448,18 @@
         <v>203</v>
       </c>
       <c r="M147" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N147" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O147" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="148" spans="1:15" ht="18" customHeight="1">
       <c r="A148" s="5" t="s">
         <v>12</v>
       </c>
@@ -9496,18 +9495,18 @@
         <v>203</v>
       </c>
       <c r="M148" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N148" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O148" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="149" spans="1:15" ht="18" customHeight="1">
       <c r="A149" s="5" t="s">
         <v>12</v>
       </c>
@@ -9543,18 +9542,18 @@
         <v>203</v>
       </c>
       <c r="M149" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N149" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O149" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="150" spans="1:15" ht="18" customHeight="1">
       <c r="A150" s="5" t="s">
         <v>12</v>
       </c>
@@ -9590,18 +9589,18 @@
         <v>203</v>
       </c>
       <c r="M150" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N150" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O150" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="151" spans="1:15" ht="18" customHeight="1">
       <c r="A151" s="5" t="s">
         <v>12</v>
       </c>
@@ -9637,18 +9636,18 @@
         <v>203</v>
       </c>
       <c r="M151" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N151" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O151" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="152" spans="1:15" ht="18" customHeight="1">
       <c r="A152" s="5" t="s">
         <v>12</v>
       </c>
@@ -9684,18 +9683,18 @@
         <v>203</v>
       </c>
       <c r="M152" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N152" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O152" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="153" spans="1:15" ht="18" customHeight="1">
       <c r="A153" s="5" t="s">
         <v>12</v>
       </c>
@@ -9731,18 +9730,18 @@
         <v>203</v>
       </c>
       <c r="M153" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N153" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O153" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="154" spans="1:15" ht="18" customHeight="1">
       <c r="A154" s="5" t="s">
         <v>12</v>
       </c>
@@ -9778,18 +9777,18 @@
         <v>203</v>
       </c>
       <c r="M154" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N154" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O154" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="155" spans="1:15" ht="18" customHeight="1">
       <c r="A155" s="5" t="s">
         <v>12</v>
       </c>
@@ -9825,18 +9824,18 @@
         <v>203</v>
       </c>
       <c r="M155" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N155" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O155" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="156" spans="1:15" ht="18" customHeight="1">
       <c r="A156" s="5" t="s">
         <v>12</v>
       </c>
@@ -9872,18 +9871,18 @@
         <v>203</v>
       </c>
       <c r="M156" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N156" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O156" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="157" spans="1:15" ht="18" customHeight="1">
       <c r="A157" s="5" t="s">
         <v>12</v>
       </c>
@@ -9919,18 +9918,18 @@
         <v>203</v>
       </c>
       <c r="M157" s="5" t="str">
-        <f t="shared" ref="M157:M188" si="8">B66</f>
+        <f t="shared" ref="M157:M188" si="10">B66</f>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N157" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O157" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="158" spans="1:15" ht="18" customHeight="1">
       <c r="A158" s="5" t="s">
         <v>12</v>
       </c>
@@ -9966,18 +9965,18 @@
         <v>203</v>
       </c>
       <c r="M158" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N158" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O158" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="159" spans="1:15" ht="18" customHeight="1">
       <c r="A159" s="5" t="s">
         <v>12</v>
       </c>
@@ -10013,18 +10012,18 @@
         <v>203</v>
       </c>
       <c r="M159" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N159" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O159" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="160" spans="1:15" ht="18" customHeight="1">
       <c r="A160" s="5" t="s">
         <v>12</v>
       </c>
@@ -10060,18 +10059,18 @@
         <v>203</v>
       </c>
       <c r="M160" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N160" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O160" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="161" spans="1:15" ht="18" customHeight="1">
       <c r="A161" s="5" t="s">
         <v>12</v>
       </c>
@@ -10107,18 +10106,18 @@
         <v>203</v>
       </c>
       <c r="M161" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N161" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O161" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="162" spans="1:15" ht="18" customHeight="1">
       <c r="A162" s="5" t="s">
         <v>12</v>
       </c>
@@ -10154,18 +10153,18 @@
         <v>203</v>
       </c>
       <c r="M162" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N162" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O162" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="163" spans="1:15" ht="18" customHeight="1">
       <c r="A163" s="5" t="s">
         <v>12</v>
       </c>
@@ -10201,18 +10200,18 @@
         <v>203</v>
       </c>
       <c r="M163" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N163" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O163" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="164" spans="1:15" ht="18" customHeight="1">
       <c r="A164" s="5" t="s">
         <v>12</v>
       </c>
@@ -10248,18 +10247,18 @@
         <v>203</v>
       </c>
       <c r="M164" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N164" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O164" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="165" spans="1:15" ht="18" customHeight="1">
       <c r="A165" s="5" t="s">
         <v>12</v>
       </c>
@@ -10295,18 +10294,18 @@
         <v>203</v>
       </c>
       <c r="M165" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N165" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O165" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="166" spans="1:15" ht="18" customHeight="1">
       <c r="A166" s="5" t="s">
         <v>12</v>
       </c>
@@ -10342,18 +10341,18 @@
         <v>203</v>
       </c>
       <c r="M166" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N166" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O166" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="167" spans="1:15" ht="18" customHeight="1">
       <c r="A167" s="5" t="s">
         <v>12</v>
       </c>
@@ -10389,18 +10388,18 @@
         <v>208</v>
       </c>
       <c r="M167" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N167" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O167" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="168" spans="1:15" ht="18" customHeight="1">
       <c r="A168" s="5" t="s">
         <v>12</v>
       </c>
@@ -10436,18 +10435,18 @@
         <v>208</v>
       </c>
       <c r="M168" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N168" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O168" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="169" spans="1:15" ht="18" customHeight="1">
       <c r="A169" s="5" t="s">
         <v>12</v>
       </c>
@@ -10483,18 +10482,18 @@
         <v>208</v>
       </c>
       <c r="M169" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N169" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O169" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="170" spans="1:15" ht="18" customHeight="1">
       <c r="A170" s="5" t="s">
         <v>12</v>
       </c>
@@ -10530,18 +10529,18 @@
         <v>208</v>
       </c>
       <c r="M170" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N170" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O170" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="171" spans="1:15" ht="18" customHeight="1">
       <c r="A171" s="5" t="s">
         <v>12</v>
       </c>
@@ -10577,18 +10576,18 @@
         <v>208</v>
       </c>
       <c r="M171" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N171" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O171" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="172" spans="1:15" ht="18" customHeight="1">
       <c r="A172" s="5" t="s">
         <v>12</v>
       </c>
@@ -10624,18 +10623,18 @@
         <v>208</v>
       </c>
       <c r="M172" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N172" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O172" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="173" spans="1:15" ht="18" customHeight="1">
       <c r="A173" s="5" t="s">
         <v>12</v>
       </c>
@@ -10671,18 +10670,18 @@
         <v>208</v>
       </c>
       <c r="M173" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N173" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O173" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="174" spans="1:15" ht="18" customHeight="1">
       <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
@@ -10718,18 +10717,18 @@
         <v>208</v>
       </c>
       <c r="M174" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N174" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O174" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="175" spans="1:15" ht="18" customHeight="1">
       <c r="A175" s="5" t="s">
         <v>12</v>
       </c>
@@ -10765,18 +10764,18 @@
         <v>208</v>
       </c>
       <c r="M175" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="N175" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create a Term Deposit Product with all properties</v>
       </c>
       <c r="O175" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="176" spans="1:15" ht="18" customHeight="1">
       <c r="A176" s="5" t="s">
         <v>12</v>
       </c>
@@ -10812,18 +10811,18 @@
         <v>208</v>
       </c>
       <c r="M176" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N176" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O176" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="177" spans="1:15" ht="18" customHeight="1">
       <c r="A177" s="5" t="s">
         <v>12</v>
       </c>
@@ -10859,18 +10858,18 @@
         <v>208</v>
       </c>
       <c r="M177" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N177" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O177" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="178" spans="1:15" ht="18" customHeight="1">
       <c r="A178" s="5" t="s">
         <v>12</v>
       </c>
@@ -10906,18 +10905,18 @@
         <v>208</v>
       </c>
       <c r="M178" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N178" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O178" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="179" spans="1:15" ht="18" customHeight="1">
       <c r="A179" s="5" t="s">
         <v>12</v>
       </c>
@@ -10953,18 +10952,18 @@
         <v>208</v>
       </c>
       <c r="M179" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N179" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O179" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="180" spans="1:15" ht="18" customHeight="1">
       <c r="A180" s="5" t="s">
         <v>12</v>
       </c>
@@ -11000,18 +10999,18 @@
         <v>208</v>
       </c>
       <c r="M180" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N180" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O180" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="181" spans="1:15" ht="18" customHeight="1">
       <c r="A181" s="5" t="s">
         <v>12</v>
       </c>
@@ -11047,18 +11046,18 @@
         <v>208</v>
       </c>
       <c r="M181" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N181" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O181" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="182" spans="1:15" ht="18" customHeight="1">
       <c r="A182" s="5" t="s">
         <v>12</v>
       </c>
@@ -11094,18 +11093,18 @@
         <v>208</v>
       </c>
       <c r="M182" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N182" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O182" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="183" spans="1:15" ht="18" customHeight="1">
       <c r="A183" s="5" t="s">
         <v>12</v>
       </c>
@@ -11141,18 +11140,18 @@
         <v>208</v>
       </c>
       <c r="M183" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N183" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O183" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="184" spans="1:15" ht="18" customHeight="1">
       <c r="A184" s="5" t="s">
         <v>12</v>
       </c>
@@ -11188,18 +11187,18 @@
         <v>208</v>
       </c>
       <c r="M184" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N184" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O184" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="185" spans="1:15" ht="18" customHeight="1">
       <c r="A185" s="5" t="s">
         <v>12</v>
       </c>
@@ -11235,18 +11234,18 @@
         <v>208</v>
       </c>
       <c r="M185" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N185" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O185" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="186" spans="1:15" ht="18" customHeight="1">
       <c r="A186" s="5" t="s">
         <v>12</v>
       </c>
@@ -11282,18 +11281,18 @@
         <v>208</v>
       </c>
       <c r="M186" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Create Term Deposit Product with all properties</v>
       </c>
       <c r="N186" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create Term Deposit Product with all properties</v>
       </c>
       <c r="O186" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="187" spans="1:15" ht="18" customHeight="1">
       <c r="A187" s="5" t="s">
         <v>12</v>
       </c>
@@ -11329,18 +11328,18 @@
         <v>208</v>
       </c>
       <c r="M187" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Create Term Deposit Product with all properties</v>
       </c>
       <c r="N187" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create Term Deposit Product with all properties</v>
       </c>
       <c r="O187" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="188" spans="1:15" ht="18" customHeight="1">
       <c r="A188" s="5" t="s">
         <v>12</v>
       </c>
@@ -11376,18 +11375,18 @@
         <v>208</v>
       </c>
       <c r="M188" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>Create Term Deposit Product with all properties</v>
       </c>
       <c r="N188" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Create Term Deposit Product with all properties</v>
       </c>
       <c r="O188" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="189" spans="1:15" ht="18" customHeight="1">
       <c r="A189" s="5" t="s">
         <v>12</v>
       </c>
@@ -11423,18 +11422,18 @@
         <v>208</v>
       </c>
       <c r="M189" s="5" t="str">
-        <f t="shared" ref="M189:M220" si="9">B98</f>
+        <f t="shared" ref="M189:M220" si="11">B98</f>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N189" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O189" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="190" spans="1:15" ht="18" customHeight="1">
       <c r="A190" s="5" t="s">
         <v>12</v>
       </c>
@@ -11470,18 +11469,18 @@
         <v>208</v>
       </c>
       <c r="M190" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>Get Term Deposit Product with all properties</v>
+      </c>
+      <c r="N190" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Get Term Deposit Product with all properties</v>
-      </c>
-      <c r="N190" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O190" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="191" spans="1:15" ht="18" customHeight="1">
       <c r="A191" s="5" t="s">
         <v>12</v>
       </c>
@@ -11517,18 +11516,18 @@
         <v>208</v>
       </c>
       <c r="M191" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>Get Term Deposit Product with all properties</v>
+      </c>
+      <c r="N191" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Get Term Deposit Product with all properties</v>
-      </c>
-      <c r="N191" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O191" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="192" spans="1:15" ht="18" customHeight="1">
       <c r="A192" s="5" t="s">
         <v>12</v>
       </c>
@@ -11564,18 +11563,18 @@
         <v>208</v>
       </c>
       <c r="M192" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>Get Term Deposit Product with all properties</v>
+      </c>
+      <c r="N192" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Get Term Deposit Product with all properties</v>
-      </c>
-      <c r="N192" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O192" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="193" spans="1:15" ht="18" customHeight="1">
       <c r="A193" s="5" t="s">
         <v>12</v>
       </c>
@@ -11611,18 +11610,18 @@
         <v>208</v>
       </c>
       <c r="M193" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>Get Term Deposit Product with all properties</v>
+      </c>
+      <c r="N193" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>Get Term Deposit Product with all properties</v>
-      </c>
-      <c r="N193" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O193" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="194" spans="1:15" ht="18" customHeight="1">
       <c r="A194" s="5" t="s">
         <v>12</v>
       </c>
@@ -11658,18 +11657,18 @@
         <v>208</v>
       </c>
       <c r="M194" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N194" s="5" t="str">
-        <f t="shared" ref="N194:N257" si="10">M194</f>
+        <f t="shared" ref="N194:N257" si="12">M194</f>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O194" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="195" spans="1:15" ht="18" customHeight="1">
       <c r="A195" s="5" t="s">
         <v>12</v>
       </c>
@@ -11705,18 +11704,18 @@
         <v>208</v>
       </c>
       <c r="M195" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N195" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O195" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="196" spans="1:15" ht="18" customHeight="1">
       <c r="A196" s="5" t="s">
         <v>12</v>
       </c>
@@ -11752,18 +11751,18 @@
         <v>208</v>
       </c>
       <c r="M196" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N196" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O196" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="197" spans="1:15" ht="18" customHeight="1">
       <c r="A197" s="5" t="s">
         <v>12</v>
       </c>
@@ -11799,18 +11798,18 @@
         <v>208</v>
       </c>
       <c r="M197" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N197" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O197" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="198" spans="1:15" ht="18" customHeight="1">
       <c r="A198" s="5" t="s">
         <v>12</v>
       </c>
@@ -11846,18 +11845,18 @@
         <v>208</v>
       </c>
       <c r="M198" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N198" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O198" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="199" spans="1:15" ht="18" customHeight="1">
       <c r="A199" s="5" t="s">
         <v>12</v>
       </c>
@@ -11893,18 +11892,18 @@
         <v>208</v>
       </c>
       <c r="M199" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N199" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O199" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="200" spans="1:15" ht="18" customHeight="1">
       <c r="A200" s="5" t="s">
         <v>12</v>
       </c>
@@ -11940,18 +11939,18 @@
         <v>208</v>
       </c>
       <c r="M200" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N200" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O200" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="201" spans="1:15" ht="18" customHeight="1">
       <c r="A201" s="5" t="s">
         <v>12</v>
       </c>
@@ -11987,18 +11986,18 @@
         <v>208</v>
       </c>
       <c r="M201" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N201" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O201" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="202" spans="1:15" ht="18" customHeight="1">
       <c r="A202" s="5" t="s">
         <v>12</v>
       </c>
@@ -12034,18 +12033,18 @@
         <v>208</v>
       </c>
       <c r="M202" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N202" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O202" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="203" spans="1:15" ht="18" customHeight="1">
       <c r="A203" s="5" t="s">
         <v>12</v>
       </c>
@@ -12081,18 +12080,18 @@
         <v>208</v>
       </c>
       <c r="M203" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N203" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O203" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="204" spans="1:15" ht="18" customHeight="1">
       <c r="A204" s="5" t="s">
         <v>12</v>
       </c>
@@ -12128,18 +12127,18 @@
         <v>208</v>
       </c>
       <c r="M204" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N204" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O204" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="205" spans="1:15" ht="18" customHeight="1">
       <c r="A205" s="5" t="s">
         <v>12</v>
       </c>
@@ -12175,18 +12174,18 @@
         <v>208</v>
       </c>
       <c r="M205" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N205" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O205" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="206" spans="1:15" ht="18" customHeight="1">
       <c r="A206" s="5" t="s">
         <v>12</v>
       </c>
@@ -12222,18 +12221,18 @@
         <v>286</v>
       </c>
       <c r="M206" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N206" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O206" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="207" spans="1:15" ht="18" customHeight="1">
       <c r="A207" s="5" t="s">
         <v>12</v>
       </c>
@@ -12269,18 +12268,18 @@
         <v>286</v>
       </c>
       <c r="M207" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N207" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O207" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="208" spans="1:15" ht="18" customHeight="1">
       <c r="A208" s="5" t="s">
         <v>12</v>
       </c>
@@ -12316,18 +12315,18 @@
         <v>286</v>
       </c>
       <c r="M208" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N208" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O208" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="209" spans="1:15" ht="18" customHeight="1">
       <c r="A209" s="5" t="s">
         <v>12</v>
       </c>
@@ -12363,18 +12362,18 @@
         <v>286</v>
       </c>
       <c r="M209" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N209" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O209" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="210" spans="1:15" ht="18" customHeight="1">
       <c r="A210" s="5" t="s">
         <v>12</v>
       </c>
@@ -12410,18 +12409,18 @@
         <v>286</v>
       </c>
       <c r="M210" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N210" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O210" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="211" spans="1:15" ht="18" customHeight="1">
       <c r="A211" s="5" t="s">
         <v>12</v>
       </c>
@@ -12457,18 +12456,18 @@
         <v>286</v>
       </c>
       <c r="M211" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N211" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O211" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="212" spans="1:15" ht="18" customHeight="1">
       <c r="A212" s="5" t="s">
         <v>12</v>
       </c>
@@ -12504,18 +12503,18 @@
         <v>286</v>
       </c>
       <c r="M212" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N212" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O212" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="213" spans="1:15" ht="18" customHeight="1">
       <c r="A213" s="5" t="s">
         <v>12</v>
       </c>
@@ -12551,18 +12550,18 @@
         <v>286</v>
       </c>
       <c r="M213" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N213" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O213" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="214" spans="1:15" ht="18" customHeight="1">
       <c r="A214" s="5" t="s">
         <v>12</v>
       </c>
@@ -12598,18 +12597,18 @@
         <v>286</v>
       </c>
       <c r="M214" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N214" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O214" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="215" spans="1:15" ht="18" customHeight="1">
       <c r="A215" s="5" t="s">
         <v>12</v>
       </c>
@@ -12645,18 +12644,18 @@
         <v>286</v>
       </c>
       <c r="M215" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N215" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O215" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="216" spans="1:15" ht="18" customHeight="1">
       <c r="A216" s="5" t="s">
         <v>12</v>
       </c>
@@ -12692,18 +12691,18 @@
         <v>286</v>
       </c>
       <c r="M216" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N216" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O216" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="217" spans="1:15" ht="18" customHeight="1">
       <c r="A217" s="5" t="s">
         <v>12</v>
       </c>
@@ -12739,18 +12738,18 @@
         <v>286</v>
       </c>
       <c r="M217" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N217" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O217" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="218" spans="1:15" ht="18" customHeight="1">
       <c r="A218" s="5" t="s">
         <v>12</v>
       </c>
@@ -12786,18 +12785,18 @@
         <v>286</v>
       </c>
       <c r="M218" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N218" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O218" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="219" spans="1:15" ht="18" customHeight="1">
       <c r="A219" s="5" t="s">
         <v>12</v>
       </c>
@@ -12833,18 +12832,18 @@
         <v>286</v>
       </c>
       <c r="M219" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N219" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O219" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="220" spans="1:15" ht="18" customHeight="1">
       <c r="A220" s="5" t="s">
         <v>12</v>
       </c>
@@ -12880,18 +12879,18 @@
         <v>286</v>
       </c>
       <c r="M220" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N220" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O220" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="221" spans="1:15" ht="18" customHeight="1">
       <c r="A221" s="5" t="s">
         <v>12</v>
       </c>
@@ -12927,18 +12926,18 @@
         <v>286</v>
       </c>
       <c r="M221" s="5" t="str">
-        <f t="shared" ref="M221:M252" si="11">B130</f>
+        <f t="shared" ref="M221:M252" si="13">B130</f>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N221" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O221" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="222" spans="1:15" ht="18" customHeight="1">
       <c r="A222" s="5" t="s">
         <v>12</v>
       </c>
@@ -12974,18 +12973,18 @@
         <v>286</v>
       </c>
       <c r="M222" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N222" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O222" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="223" spans="1:15" ht="18" customHeight="1">
       <c r="A223" s="5" t="s">
         <v>12</v>
       </c>
@@ -13021,18 +13020,18 @@
         <v>286</v>
       </c>
       <c r="M223" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N223" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O223" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="224" spans="1:15" ht="18" customHeight="1">
       <c r="A224" s="5" t="s">
         <v>12</v>
       </c>
@@ -13068,18 +13067,18 @@
         <v>286</v>
       </c>
       <c r="M224" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N224" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O224" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="225" spans="1:15" ht="18" customHeight="1">
       <c r="A225" s="5" t="s">
         <v>12</v>
       </c>
@@ -13115,18 +13114,18 @@
         <v>286</v>
       </c>
       <c r="M225" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N225" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O225" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="226" spans="1:15" ht="18" customHeight="1">
       <c r="A226" s="5" t="s">
         <v>12</v>
       </c>
@@ -13162,18 +13161,18 @@
         <v>286</v>
       </c>
       <c r="M226" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N226" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O226" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="227" spans="1:15" ht="18" customHeight="1">
       <c r="A227" s="5" t="s">
         <v>12</v>
       </c>
@@ -13209,18 +13208,18 @@
         <v>286</v>
       </c>
       <c r="M227" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N227" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O227" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="228" spans="1:15" ht="18" customHeight="1">
       <c r="A228" s="5" t="s">
         <v>12</v>
       </c>
@@ -13256,18 +13255,18 @@
         <v>286</v>
       </c>
       <c r="M228" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N228" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O228" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="229" spans="1:15" ht="18" customHeight="1">
       <c r="A229" s="5" t="s">
         <v>12</v>
       </c>
@@ -13303,18 +13302,18 @@
         <v>286</v>
       </c>
       <c r="M229" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N229" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O229" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="230" spans="1:15" ht="18" customHeight="1">
       <c r="A230" s="5" t="s">
         <v>12</v>
       </c>
@@ -13350,18 +13349,18 @@
         <v>286</v>
       </c>
       <c r="M230" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N230" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O230" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="231" spans="1:15" ht="18" customHeight="1">
       <c r="A231" s="5" t="s">
         <v>12</v>
       </c>
@@ -13397,18 +13396,18 @@
         <v>286</v>
       </c>
       <c r="M231" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N231" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O231" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="232" spans="1:15" ht="18" customHeight="1">
       <c r="A232" s="5" t="s">
         <v>12</v>
       </c>
@@ -13444,18 +13443,18 @@
         <v>286</v>
       </c>
       <c r="M232" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N232" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O232" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="233" spans="1:15" ht="18" customHeight="1">
       <c r="A233" s="5" t="s">
         <v>12</v>
       </c>
@@ -13491,18 +13490,18 @@
         <v>286</v>
       </c>
       <c r="M233" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N233" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O233" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="234" spans="1:15" ht="18" customHeight="1">
       <c r="A234" s="5" t="s">
         <v>12</v>
       </c>
@@ -13538,18 +13537,18 @@
         <v>286</v>
       </c>
       <c r="M234" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N234" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O234" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="235" spans="1:15" ht="18" customHeight="1">
       <c r="A235" s="5" t="s">
         <v>12</v>
       </c>
@@ -13585,18 +13584,18 @@
         <v>286</v>
       </c>
       <c r="M235" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N235" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O235" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="236" spans="1:15" ht="18" customHeight="1">
       <c r="A236" s="5" t="s">
         <v>12</v>
       </c>
@@ -13632,18 +13631,18 @@
         <v>286</v>
       </c>
       <c r="M236" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N236" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O236" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="237" spans="1:15" ht="18" customHeight="1">
       <c r="A237" s="5" t="s">
         <v>12</v>
       </c>
@@ -13679,18 +13678,18 @@
         <v>286</v>
       </c>
       <c r="M237" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N237" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O237" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="238" spans="1:15" ht="18" customHeight="1">
       <c r="A238" s="5" t="s">
         <v>12</v>
       </c>
@@ -13726,18 +13725,18 @@
         <v>286</v>
       </c>
       <c r="M238" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N238" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O238" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="239" spans="1:15" ht="18" customHeight="1">
       <c r="A239" s="5" t="s">
         <v>12</v>
       </c>
@@ -13773,18 +13772,18 @@
         <v>286</v>
       </c>
       <c r="M239" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N239" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O239" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="240" spans="1:15" ht="18" customHeight="1">
       <c r="A240" s="5" t="s">
         <v>12</v>
       </c>
@@ -13820,18 +13819,18 @@
         <v>286</v>
       </c>
       <c r="M240" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N240" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O240" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="241" spans="1:15" ht="18" customHeight="1">
       <c r="A241" s="5" t="s">
         <v>12</v>
       </c>
@@ -13867,18 +13866,18 @@
         <v>286</v>
       </c>
       <c r="M241" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N241" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O241" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="242" spans="1:15" ht="18" customHeight="1">
       <c r="A242" s="5" t="s">
         <v>12</v>
       </c>
@@ -13914,18 +13913,18 @@
         <v>286</v>
       </c>
       <c r="M242" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N242" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O242" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="243" spans="1:15" ht="18" customHeight="1">
       <c r="A243" s="5" t="s">
         <v>12</v>
       </c>
@@ -13961,18 +13960,18 @@
         <v>286</v>
       </c>
       <c r="M243" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N243" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O243" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="18" hidden="1" customHeight="1">
+    <row r="244" spans="1:15" ht="18" customHeight="1">
       <c r="A244" s="5" t="s">
         <v>12</v>
       </c>
@@ -14008,11 +14007,11 @@
         <v>286</v>
       </c>
       <c r="M244" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N244" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O244" s="6" t="b">
@@ -14055,11 +14054,11 @@
         <v>288</v>
       </c>
       <c r="M245" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N245" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O245" s="6" t="b">
@@ -14102,11 +14101,11 @@
         <v>288</v>
       </c>
       <c r="M246" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N246" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O246" s="6" t="b">
@@ -14149,11 +14148,11 @@
         <v>288</v>
       </c>
       <c r="M247" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N247" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O247" s="6" t="b">
@@ -14196,11 +14195,11 @@
         <v>288</v>
       </c>
       <c r="M248" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N248" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O248" s="6" t="b">
@@ -14243,11 +14242,11 @@
         <v>288</v>
       </c>
       <c r="M249" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N249" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O249" s="6" t="b">
@@ -14290,11 +14289,11 @@
         <v>288</v>
       </c>
       <c r="M250" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N250" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O250" s="6" t="b">
@@ -14337,11 +14336,11 @@
         <v>288</v>
       </c>
       <c r="M251" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N251" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O251" s="6" t="b">
@@ -14384,11 +14383,11 @@
         <v>288</v>
       </c>
       <c r="M252" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N252" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O252" s="6" t="b">
@@ -14431,11 +14430,11 @@
         <v>288</v>
       </c>
       <c r="M253" s="5" t="str">
-        <f t="shared" ref="M253:M283" si="12">B162</f>
+        <f t="shared" ref="M253:M283" si="14">B162</f>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="N253" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O253" s="6" t="b">
@@ -14478,11 +14477,11 @@
         <v>288</v>
       </c>
       <c r="M254" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>Get Term Deposit Product with all properties</v>
+      </c>
+      <c r="N254" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Get Term Deposit Product with all properties</v>
-      </c>
-      <c r="N254" s="5" t="str">
-        <f t="shared" si="10"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O254" s="6" t="b">
@@ -14525,11 +14524,11 @@
         <v>288</v>
       </c>
       <c r="M255" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>Get Term Deposit Product with all properties</v>
+      </c>
+      <c r="N255" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Get Term Deposit Product with all properties</v>
-      </c>
-      <c r="N255" s="5" t="str">
-        <f t="shared" si="10"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O255" s="6" t="b">
@@ -14572,11 +14571,11 @@
         <v>288</v>
       </c>
       <c r="M256" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>Get Term Deposit Product with all properties</v>
+      </c>
+      <c r="N256" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Get Term Deposit Product with all properties</v>
-      </c>
-      <c r="N256" s="5" t="str">
-        <f t="shared" si="10"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O256" s="6" t="b">
@@ -14619,11 +14618,11 @@
         <v>288</v>
       </c>
       <c r="M257" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>Get Term Deposit Product with all properties</v>
+      </c>
+      <c r="N257" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Get Term Deposit Product with all properties</v>
-      </c>
-      <c r="N257" s="5" t="str">
-        <f t="shared" si="10"/>
         <v>Get Term Deposit Product with all properties</v>
       </c>
       <c r="O257" s="6" t="b">
@@ -14666,11 +14665,11 @@
         <v>288</v>
       </c>
       <c r="M258" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N258" s="5" t="str">
-        <f t="shared" ref="N258:N283" si="13">M258</f>
+        <f t="shared" ref="N258:N283" si="15">M258</f>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O258" s="6" t="b">
@@ -14713,11 +14712,11 @@
         <v>288</v>
       </c>
       <c r="M259" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N259" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O259" s="6" t="b">
@@ -14760,11 +14759,11 @@
         <v>288</v>
       </c>
       <c r="M260" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N260" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O260" s="6" t="b">
@@ -14807,11 +14806,11 @@
         <v>288</v>
       </c>
       <c r="M261" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N261" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O261" s="6" t="b">
@@ -14854,11 +14853,11 @@
         <v>288</v>
       </c>
       <c r="M262" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N262" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O262" s="6" t="b">
@@ -14901,11 +14900,11 @@
         <v>288</v>
       </c>
       <c r="M263" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N263" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O263" s="6" t="b">
@@ -14948,11 +14947,11 @@
         <v>288</v>
       </c>
       <c r="M264" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N264" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O264" s="6" t="b">
@@ -14995,11 +14994,11 @@
         <v>288</v>
       </c>
       <c r="M265" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N265" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O265" s="6" t="b">
@@ -15042,11 +15041,11 @@
         <v>288</v>
       </c>
       <c r="M266" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N266" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O266" s="6" t="b">
@@ -15089,11 +15088,11 @@
         <v>288</v>
       </c>
       <c r="M267" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N267" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O267" s="6" t="b">
@@ -15136,11 +15135,11 @@
         <v>288</v>
       </c>
       <c r="M268" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N268" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O268" s="6" t="b">
@@ -15183,11 +15182,11 @@
         <v>288</v>
       </c>
       <c r="M269" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N269" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O269" s="6" t="b">
@@ -15230,11 +15229,11 @@
         <v>288</v>
       </c>
       <c r="M270" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N270" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O270" s="6" t="b">
@@ -15277,11 +15276,11 @@
         <v>288</v>
       </c>
       <c r="M271" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N271" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O271" s="6" t="b">
@@ -15324,11 +15323,11 @@
         <v>288</v>
       </c>
       <c r="M272" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N272" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O272" s="6" t="b">
@@ -15371,11 +15370,11 @@
         <v>288</v>
       </c>
       <c r="M273" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N273" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O273" s="6" t="b">
@@ -15418,11 +15417,11 @@
         <v>288</v>
       </c>
       <c r="M274" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N274" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O274" s="6" t="b">
@@ -15465,11 +15464,11 @@
         <v>288</v>
       </c>
       <c r="M275" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N275" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O275" s="6" t="b">
@@ -15512,11 +15511,11 @@
         <v>288</v>
       </c>
       <c r="M276" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N276" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O276" s="6" t="b">
@@ -15559,11 +15558,11 @@
         <v>288</v>
       </c>
       <c r="M277" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N277" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O277" s="6" t="b">
@@ -15606,11 +15605,11 @@
         <v>288</v>
       </c>
       <c r="M278" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N278" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O278" s="6" t="b">
@@ -15653,11 +15652,11 @@
         <v>288</v>
       </c>
       <c r="M279" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N279" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O279" s="6" t="b">
@@ -15700,11 +15699,11 @@
         <v>288</v>
       </c>
       <c r="M280" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N280" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O280" s="6" t="b">
@@ -15747,11 +15746,11 @@
         <v>288</v>
       </c>
       <c r="M281" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N281" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O281" s="6" t="b">
@@ -15794,11 +15793,11 @@
         <v>288</v>
       </c>
       <c r="M282" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N282" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O282" s="6" t="b">
@@ -15841,11 +15840,11 @@
         <v>288</v>
       </c>
       <c r="M283" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="N283" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Create Global Parameters for Savings Account Product</v>
       </c>
       <c r="O283" s="6" t="b">
@@ -15853,13 +15852,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:IV283" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Fetch Global Parameters for Savings Account Product"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:IV283" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape"/>
